--- a/braid_surface/brainregion.xlsx
+++ b/braid_surface/brainregion.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f61cb07b8572b703/Documents/Bismillah_S3/Code_simulation/Script_matlab/braid_surface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C6992A77-323F-4FA9-96D5-61AB184B1212}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9162278F-317C-47ED-BA6E-EC836BF20C42}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C6992A77-323F-4FA9-96D5-61AB184B1212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C2F816D-C793-4266-8477-ABB3FF218A49}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="14328" windowHeight="12360" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-9885" windowWidth="21600" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1015 nodes" sheetId="1" r:id="rId1"/>
-    <sheet name="463 nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="234 nodes" sheetId="3" r:id="rId3"/>
-    <sheet name="129 nodes" sheetId="4" r:id="rId4"/>
-    <sheet name="83 nodes" sheetId="5" r:id="rId5"/>
+    <sheet name="1017 nodes" sheetId="6" r:id="rId1"/>
+    <sheet name="1015 nodes" sheetId="1" r:id="rId2"/>
+    <sheet name="463 nodes" sheetId="2" r:id="rId3"/>
+    <sheet name="234 nodes" sheetId="3" r:id="rId4"/>
+    <sheet name="129 nodes" sheetId="4" r:id="rId5"/>
+    <sheet name="83 nodes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="58">
   <si>
     <t>Brain Region Name</t>
   </si>
@@ -558,10 +559,1128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9D705-4D0A-4431-AC43-A06BDF80A829}">
+  <dimension ref="A2:H44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>509</v>
+      </c>
+      <c r="E3">
+        <v>525</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>526</v>
+      </c>
+      <c r="E4">
+        <v>529</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>530</v>
+      </c>
+      <c r="E5">
+        <v>531</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>532</v>
+      </c>
+      <c r="E6">
+        <v>542</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>543</v>
+      </c>
+      <c r="E7">
+        <v>550</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>551</v>
+      </c>
+      <c r="E8">
+        <v>559</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>560</v>
+      </c>
+      <c r="E9">
+        <v>586</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>587</v>
+      </c>
+      <c r="E10">
+        <v>628</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>121</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>629</v>
+      </c>
+      <c r="E11">
+        <v>639</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>132</v>
+      </c>
+      <c r="C12">
+        <v>167</v>
+      </c>
+      <c r="D12">
+        <v>640</v>
+      </c>
+      <c r="E12">
+        <v>675</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>168</v>
+      </c>
+      <c r="C13">
+        <v>179</v>
+      </c>
+      <c r="D13">
+        <v>676</v>
+      </c>
+      <c r="E13">
+        <v>687</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>183</v>
+      </c>
+      <c r="D14">
+        <v>688</v>
+      </c>
+      <c r="E14">
+        <v>691</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>184</v>
+      </c>
+      <c r="C15">
+        <v>189</v>
+      </c>
+      <c r="D15">
+        <v>692</v>
+      </c>
+      <c r="E15">
+        <v>697</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>198</v>
+      </c>
+      <c r="D16">
+        <v>698</v>
+      </c>
+      <c r="E16">
+        <v>706</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>199</v>
+      </c>
+      <c r="C17">
+        <v>204</v>
+      </c>
+      <c r="D17">
+        <v>707</v>
+      </c>
+      <c r="E17">
+        <v>712</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>205</v>
+      </c>
+      <c r="C18">
+        <v>234</v>
+      </c>
+      <c r="D18">
+        <v>713</v>
+      </c>
+      <c r="E18">
+        <v>742</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>235</v>
+      </c>
+      <c r="C19">
+        <v>254</v>
+      </c>
+      <c r="D19">
+        <v>743</v>
+      </c>
+      <c r="E19">
+        <v>762</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>255</v>
+      </c>
+      <c r="C20">
+        <v>283</v>
+      </c>
+      <c r="D20">
+        <v>763</v>
+      </c>
+      <c r="E20">
+        <v>791</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>284</v>
+      </c>
+      <c r="C21">
+        <v>309</v>
+      </c>
+      <c r="D21">
+        <v>792</v>
+      </c>
+      <c r="E21">
+        <v>817</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>310</v>
+      </c>
+      <c r="C22">
+        <v>332</v>
+      </c>
+      <c r="D22">
+        <v>818</v>
+      </c>
+      <c r="E22">
+        <v>840</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>333</v>
+      </c>
+      <c r="C23">
+        <v>340</v>
+      </c>
+      <c r="D23">
+        <v>841</v>
+      </c>
+      <c r="E23">
+        <v>848</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>341</v>
+      </c>
+      <c r="C24">
+        <v>348</v>
+      </c>
+      <c r="D24">
+        <v>849</v>
+      </c>
+      <c r="E24">
+        <v>856</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>349</v>
+      </c>
+      <c r="C25">
+        <v>371</v>
+      </c>
+      <c r="D25">
+        <v>857</v>
+      </c>
+      <c r="E25">
+        <v>879</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>372</v>
+      </c>
+      <c r="C26">
+        <v>388</v>
+      </c>
+      <c r="D26">
+        <v>880</v>
+      </c>
+      <c r="E26">
+        <v>896</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>389</v>
+      </c>
+      <c r="C27">
+        <v>405</v>
+      </c>
+      <c r="D27">
+        <v>897</v>
+      </c>
+      <c r="E27">
+        <v>913</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>406</v>
+      </c>
+      <c r="C28">
+        <v>411</v>
+      </c>
+      <c r="D28">
+        <v>914</v>
+      </c>
+      <c r="E28">
+        <v>919</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>412</v>
+      </c>
+      <c r="C29">
+        <v>413</v>
+      </c>
+      <c r="D29">
+        <v>920</v>
+      </c>
+      <c r="E29">
+        <v>921</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>414</v>
+      </c>
+      <c r="C30">
+        <v>416</v>
+      </c>
+      <c r="D30">
+        <v>922</v>
+      </c>
+      <c r="E30">
+        <v>924</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>417</v>
+      </c>
+      <c r="C31">
+        <v>432</v>
+      </c>
+      <c r="D31">
+        <v>925</v>
+      </c>
+      <c r="E31">
+        <v>940</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>433</v>
+      </c>
+      <c r="C32">
+        <v>451</v>
+      </c>
+      <c r="D32">
+        <v>941</v>
+      </c>
+      <c r="E32">
+        <v>959</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>452</v>
+      </c>
+      <c r="C33">
+        <v>457</v>
+      </c>
+      <c r="D33">
+        <v>960</v>
+      </c>
+      <c r="E33">
+        <v>965</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>458</v>
+      </c>
+      <c r="C34">
+        <v>482</v>
+      </c>
+      <c r="D34">
+        <v>966</v>
+      </c>
+      <c r="E34">
+        <v>990</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>483</v>
+      </c>
+      <c r="C35">
+        <v>485</v>
+      </c>
+      <c r="D35">
+        <v>991</v>
+      </c>
+      <c r="E35">
+        <v>993</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>486</v>
+      </c>
+      <c r="C36">
+        <v>501</v>
+      </c>
+      <c r="D36">
+        <v>994</v>
+      </c>
+      <c r="E36">
+        <v>1009</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>502</v>
+      </c>
+      <c r="C37">
+        <v>502</v>
+      </c>
+      <c r="D37">
+        <v>1010</v>
+      </c>
+      <c r="E37">
+        <v>1010</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>503</v>
+      </c>
+      <c r="C38">
+        <v>503</v>
+      </c>
+      <c r="D38">
+        <v>1011</v>
+      </c>
+      <c r="E38">
+        <v>1011</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>504</v>
+      </c>
+      <c r="C39">
+        <v>504</v>
+      </c>
+      <c r="D39">
+        <v>1012</v>
+      </c>
+      <c r="E39">
+        <v>1012</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>505</v>
+      </c>
+      <c r="C40">
+        <v>505</v>
+      </c>
+      <c r="D40">
+        <v>1013</v>
+      </c>
+      <c r="E40">
+        <v>1013</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>506</v>
+      </c>
+      <c r="C41">
+        <v>506</v>
+      </c>
+      <c r="D41">
+        <v>1014</v>
+      </c>
+      <c r="E41">
+        <v>1014</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>507</v>
+      </c>
+      <c r="C42">
+        <v>507</v>
+      </c>
+      <c r="D42">
+        <v>1015</v>
+      </c>
+      <c r="E42">
+        <v>1015</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>508</v>
+      </c>
+      <c r="C43">
+        <v>508</v>
+      </c>
+      <c r="D43">
+        <v>1016</v>
+      </c>
+      <c r="E43">
+        <v>1016</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1017</v>
+      </c>
+      <c r="E44">
+        <v>1017</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -1687,11 +2806,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2810,11 +3929,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -3933,7 +5052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H44"/>
   <sheetViews>
@@ -5056,11 +6175,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
